--- a/SPPSApi/Doc/Template/FS0401.xlsx
+++ b/SPPSApi/Doc/Template/FS0401.xlsx
@@ -1,104 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1804B755-AF10-4DEA-B747-4525C73815CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E512AA71-90A4-421D-B302-6B3A5B18AD3F}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>包装工场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>车型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>号旧区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>订货方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>收容数T/C(FROM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>收容数T/C(TO)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>旧型年限生产区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>实施年月(年限)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>替代品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,12 +119,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -135,13 +131,10 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -158,44 +151,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -223,31 +216,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -275,23 +251,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -303,196 +262,220 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D0744C-3F93-48CD-830A-D43C266EE6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -500,4 +483,30 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0401.xlsx
+++ b/SPPSApi/Doc/Template/FS0401.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959D55A-780C-448D-9568-817A10F7CCFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1992" yWindow="1992" windowWidth="17256" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,12 +118,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -135,6 +137,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -183,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +221,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,56 +465,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -483,30 +536,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0401.xlsx
+++ b/SPPSApi/Doc/Template/FS0401.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959D55A-780C-448D-9568-817A10F7CCFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892EB194-4F66-43CF-8E3E-6EE5F011E4C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1992" yWindow="1992" windowWidth="17256" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
   </si>
   <si>
     <t>替代品番</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,24 +468,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -502,38 +501,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>